--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220514_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220514_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1191,7 @@
         <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1246,7 +1243,7 @@
         <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1298,7 +1295,7 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1324,7 +1321,7 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1350,7 +1347,7 @@
         <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1376,7 +1373,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1428,7 +1425,7 @@
         <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1454,7 +1451,7 @@
         <v>221</v>
       </c>
       <c r="H12" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1480,7 +1477,7 @@
         <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1532,7 +1529,7 @@
         <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1558,7 +1555,7 @@
         <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1584,7 +1581,7 @@
         <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1610,7 +1607,7 @@
         <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1636,7 +1633,7 @@
         <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1662,7 +1659,7 @@
         <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1688,7 +1685,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1714,7 +1711,7 @@
         <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1740,7 +1737,7 @@
         <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1766,7 +1763,7 @@
         <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1792,7 +1789,7 @@
         <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1818,7 +1815,7 @@
         <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1844,7 +1841,7 @@
         <v>227</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1870,7 +1867,7 @@
         <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1896,7 +1893,7 @@
         <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1948,7 +1945,7 @@
         <v>230</v>
       </c>
       <c r="H31" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1974,7 +1971,7 @@
         <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2000,7 +1997,7 @@
         <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2052,7 +2049,7 @@
         <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2078,7 +2075,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2104,7 +2101,7 @@
         <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2130,7 +2127,7 @@
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2156,7 +2153,7 @@
         <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2208,7 +2205,7 @@
         <v>218</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2234,7 +2231,7 @@
         <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2260,7 +2257,7 @@
         <v>232</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2286,7 +2283,7 @@
         <v>225</v>
       </c>
       <c r="H44" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2312,7 +2309,7 @@
         <v>229</v>
       </c>
       <c r="H45" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2338,7 +2335,7 @@
         <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2364,7 +2361,7 @@
         <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2390,7 +2387,7 @@
         <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2468,7 +2465,7 @@
         <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2494,7 +2491,7 @@
         <v>216</v>
       </c>
       <c r="H52" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2520,7 +2517,7 @@
         <v>238</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2546,7 +2543,7 @@
         <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2572,7 +2569,7 @@
         <v>229</v>
       </c>
       <c r="H55" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2598,7 +2595,7 @@
         <v>239</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2676,7 +2673,7 @@
         <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2728,7 +2725,7 @@
         <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2754,7 +2751,7 @@
         <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2780,7 +2777,7 @@
         <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2806,7 +2803,7 @@
         <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2832,7 +2829,7 @@
         <v>229</v>
       </c>
       <c r="H65" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2858,7 +2855,7 @@
         <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2884,7 +2881,7 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2910,7 +2907,7 @@
         <v>229</v>
       </c>
       <c r="H68" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2936,7 +2933,7 @@
         <v>229</v>
       </c>
       <c r="H69" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2988,7 +2985,7 @@
         <v>226</v>
       </c>
       <c r="H71" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3040,7 +3037,7 @@
         <v>236</v>
       </c>
       <c r="H73" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3066,7 +3063,7 @@
         <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3092,7 +3089,7 @@
         <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3118,7 +3115,7 @@
         <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3170,7 +3167,7 @@
         <v>246</v>
       </c>
       <c r="H78" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3196,7 +3193,7 @@
         <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3248,7 +3245,7 @@
         <v>247</v>
       </c>
       <c r="H81" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3274,7 +3271,7 @@
         <v>248</v>
       </c>
       <c r="H82" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3300,7 +3297,7 @@
         <v>247</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3378,7 +3375,7 @@
         <v>232</v>
       </c>
       <c r="H86" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3404,7 +3401,7 @@
         <v>249</v>
       </c>
       <c r="H87" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3430,7 +3427,7 @@
         <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3508,7 +3505,7 @@
         <v>251</v>
       </c>
       <c r="H91" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3534,7 +3531,7 @@
         <v>224</v>
       </c>
       <c r="H92" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3560,7 +3557,7 @@
         <v>216</v>
       </c>
       <c r="H93" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3586,7 +3583,7 @@
         <v>232</v>
       </c>
       <c r="H94" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3638,7 +3635,7 @@
         <v>224</v>
       </c>
       <c r="H96" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3664,7 +3661,7 @@
         <v>252</v>
       </c>
       <c r="H97" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3690,7 +3687,7 @@
         <v>224</v>
       </c>
       <c r="H98" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3716,7 +3713,7 @@
         <v>253</v>
       </c>
       <c r="H99" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3742,7 +3739,7 @@
         <v>254</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3768,7 +3765,7 @@
         <v>253</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
